--- a/data/pca/factorExposure/factorExposure_2009-08-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0176487420709916</v>
+        <v>0.01690451705609194</v>
       </c>
       <c r="C2">
-        <v>0.001623936742757248</v>
+        <v>-0.001019029730781431</v>
       </c>
       <c r="D2">
-        <v>0.004657232770014699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00955035586766523</v>
+      </c>
+      <c r="E2">
+        <v>0.002051888292629667</v>
+      </c>
+      <c r="F2">
+        <v>0.01434456944365051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09443614445666147</v>
+        <v>0.09312502460029703</v>
       </c>
       <c r="C4">
-        <v>0.02069384365564423</v>
+        <v>-0.01460586428652021</v>
       </c>
       <c r="D4">
-        <v>0.06711375220553431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08364824817390715</v>
+      </c>
+      <c r="E4">
+        <v>0.02859658297436539</v>
+      </c>
+      <c r="F4">
+        <v>-0.03307726247334262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1491764297248006</v>
+        <v>0.1598493859048676</v>
       </c>
       <c r="C6">
-        <v>0.02799010225158455</v>
+        <v>-0.02734948427995482</v>
       </c>
       <c r="D6">
-        <v>-0.02661042545474524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02554511542505489</v>
+      </c>
+      <c r="E6">
+        <v>0.009036301834115461</v>
+      </c>
+      <c r="F6">
+        <v>-0.04051355454630964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0629445492968877</v>
+        <v>0.06323165843234843</v>
       </c>
       <c r="C7">
-        <v>0.00271358905057622</v>
+        <v>0.001684203124179248</v>
       </c>
       <c r="D7">
-        <v>0.04032608662109066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0520088699622949</v>
+      </c>
+      <c r="E7">
+        <v>0.01153832682356</v>
+      </c>
+      <c r="F7">
+        <v>-0.04680768215649785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06340497045701798</v>
+        <v>0.05793546124355201</v>
       </c>
       <c r="C8">
-        <v>-0.01073778384155231</v>
+        <v>0.01297671918989268</v>
       </c>
       <c r="D8">
-        <v>0.02352858274714335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03162982005499245</v>
+      </c>
+      <c r="E8">
+        <v>0.01780593184166143</v>
+      </c>
+      <c r="F8">
+        <v>0.02512881073977609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07283179518100533</v>
+        <v>0.07094841572239444</v>
       </c>
       <c r="C9">
-        <v>0.01703118879597075</v>
+        <v>-0.01026656315108981</v>
       </c>
       <c r="D9">
-        <v>0.06948982808232149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08725343897032924</v>
+      </c>
+      <c r="E9">
+        <v>0.0242911006803102</v>
+      </c>
+      <c r="F9">
+        <v>-0.04693405391629635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08327943385119761</v>
+        <v>0.08972659716305655</v>
       </c>
       <c r="C10">
-        <v>0.01306893772187834</v>
+        <v>-0.02077826516202419</v>
       </c>
       <c r="D10">
-        <v>-0.1654164882928542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1626160613560126</v>
+      </c>
+      <c r="E10">
+        <v>-0.03194713733212599</v>
+      </c>
+      <c r="F10">
+        <v>0.05748010379457965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09274827134385991</v>
+        <v>0.08800238555656431</v>
       </c>
       <c r="C11">
-        <v>0.01778733181821559</v>
+        <v>-0.01060500072379798</v>
       </c>
       <c r="D11">
-        <v>0.09855647605762324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169235392501284</v>
+      </c>
+      <c r="E11">
+        <v>0.04614156648116415</v>
+      </c>
+      <c r="F11">
+        <v>-0.02245813945682621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09872704123213176</v>
+        <v>0.09146123836016351</v>
       </c>
       <c r="C12">
-        <v>0.015636612821264</v>
+        <v>-0.007922924505976051</v>
       </c>
       <c r="D12">
-        <v>0.1026099858609639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317022932457399</v>
+      </c>
+      <c r="E12">
+        <v>0.04571067278034709</v>
+      </c>
+      <c r="F12">
+        <v>-0.03127849930737793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04415675094871629</v>
+        <v>0.04218568800259258</v>
       </c>
       <c r="C13">
-        <v>0.005874223113595684</v>
+        <v>-0.002554737694808744</v>
       </c>
       <c r="D13">
-        <v>0.03127793401124897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05385993438783306</v>
+      </c>
+      <c r="E13">
+        <v>-0.003117438159878257</v>
+      </c>
+      <c r="F13">
+        <v>-0.001777942759662687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01973292307031347</v>
+        <v>0.02363451037138015</v>
       </c>
       <c r="C14">
-        <v>0.01511847462792094</v>
+        <v>-0.01373653813647829</v>
       </c>
       <c r="D14">
-        <v>0.02552023394242682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03327142108306069</v>
+      </c>
+      <c r="E14">
+        <v>0.01865381611635432</v>
+      </c>
+      <c r="F14">
+        <v>-0.01357026851402183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03450908548679733</v>
+        <v>0.03292647139729532</v>
       </c>
       <c r="C15">
-        <v>0.007703996324633609</v>
+        <v>-0.004721361726063708</v>
       </c>
       <c r="D15">
-        <v>0.03120958530183941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04493092594461755</v>
+      </c>
+      <c r="E15">
+        <v>0.005984519591620616</v>
+      </c>
+      <c r="F15">
+        <v>-0.02530007820799647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0779366936415368</v>
+        <v>0.07383463974780496</v>
       </c>
       <c r="C16">
-        <v>0.008503233658417852</v>
+        <v>-0.00113088496212969</v>
       </c>
       <c r="D16">
-        <v>0.1005388862349999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276289864458763</v>
+      </c>
+      <c r="E16">
+        <v>0.06038339059220448</v>
+      </c>
+      <c r="F16">
+        <v>-0.02716078919874063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006468201710792715</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000255571869400815</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001685510925236642</v>
+      </c>
+      <c r="E17">
+        <v>0.001197213512532155</v>
+      </c>
+      <c r="F17">
+        <v>0.002413238469618897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01743965843203373</v>
+        <v>0.03787684637705898</v>
       </c>
       <c r="C18">
-        <v>-0.003135894228201872</v>
+        <v>0.002926373508704246</v>
       </c>
       <c r="D18">
-        <v>0.02969091482661353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01564699073830047</v>
+      </c>
+      <c r="E18">
+        <v>-0.008178620437316833</v>
+      </c>
+      <c r="F18">
+        <v>0.009008764662075421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06607790871779612</v>
+        <v>0.06292248466113411</v>
       </c>
       <c r="C20">
-        <v>0.006605828779436416</v>
+        <v>-0.0004117763555171449</v>
       </c>
       <c r="D20">
-        <v>0.05305522574573363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07716074897852798</v>
+      </c>
+      <c r="E20">
+        <v>0.05585244745203511</v>
+      </c>
+      <c r="F20">
+        <v>-0.02960123065876863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04043923534859439</v>
+        <v>0.04102083539941872</v>
       </c>
       <c r="C21">
-        <v>0.009869611775054065</v>
+        <v>-0.006367871366418374</v>
       </c>
       <c r="D21">
-        <v>0.03098678960295993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03901229753763694</v>
+      </c>
+      <c r="E21">
+        <v>-0.000141919503869321</v>
+      </c>
+      <c r="F21">
+        <v>0.02343020086786423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04079849344308675</v>
+        <v>0.04241210116561336</v>
       </c>
       <c r="C22">
-        <v>0.001078938875298896</v>
+        <v>-0.0009819930368725862</v>
       </c>
       <c r="D22">
-        <v>-0.009157720121740476</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004661033799004418</v>
+      </c>
+      <c r="E22">
+        <v>0.036301365441689</v>
+      </c>
+      <c r="F22">
+        <v>0.04103978998290179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04076171515215026</v>
+        <v>0.04238789294389732</v>
       </c>
       <c r="C23">
-        <v>0.001068940762676377</v>
+        <v>-0.0009733958009718699</v>
       </c>
       <c r="D23">
-        <v>-0.009137176707499505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004676413438504648</v>
+      </c>
+      <c r="E23">
+        <v>0.03648415653320997</v>
+      </c>
+      <c r="F23">
+        <v>0.04100076458880315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08430903359537965</v>
+        <v>0.07979598632216688</v>
       </c>
       <c r="C24">
-        <v>0.008791717565380846</v>
+        <v>-0.00182444388559971</v>
       </c>
       <c r="D24">
-        <v>0.1052962107001183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1199440334726666</v>
+      </c>
+      <c r="E24">
+        <v>0.04845864019484019</v>
+      </c>
+      <c r="F24">
+        <v>-0.02949662533303116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0893016167153053</v>
+        <v>0.08468923213858823</v>
       </c>
       <c r="C25">
-        <v>0.01130190459993402</v>
+        <v>-0.004399206433351898</v>
       </c>
       <c r="D25">
-        <v>0.09154937812976138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094322467205453</v>
+      </c>
+      <c r="E25">
+        <v>0.03202129693047154</v>
+      </c>
+      <c r="F25">
+        <v>-0.02625098149087945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05952028977753344</v>
+        <v>0.05938032673635981</v>
       </c>
       <c r="C26">
-        <v>0.01799914032858696</v>
+        <v>-0.01457620349796705</v>
       </c>
       <c r="D26">
-        <v>0.01868316380427425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04233445989958113</v>
+      </c>
+      <c r="E26">
+        <v>0.0299262639496726</v>
+      </c>
+      <c r="F26">
+        <v>0.005765724021715782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1309446721008351</v>
+        <v>0.1414162292137411</v>
       </c>
       <c r="C28">
-        <v>0.01187416325385291</v>
+        <v>-0.0222569618000847</v>
       </c>
       <c r="D28">
-        <v>-0.2726331131178454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613142068163575</v>
+      </c>
+      <c r="E28">
+        <v>-0.06775166369980111</v>
+      </c>
+      <c r="F28">
+        <v>-0.003211714296168046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02601358302290623</v>
+        <v>0.02847047815657961</v>
       </c>
       <c r="C29">
-        <v>0.009734529736437934</v>
+        <v>-0.008776729166996124</v>
       </c>
       <c r="D29">
-        <v>0.02324333555954299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03099417116105798</v>
+      </c>
+      <c r="E29">
+        <v>0.01356228661801843</v>
+      </c>
+      <c r="F29">
+        <v>0.0128803605226079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06577198064157366</v>
+        <v>0.0591107867508051</v>
       </c>
       <c r="C30">
-        <v>0.01020279441390757</v>
+        <v>-0.002724875027717852</v>
       </c>
       <c r="D30">
-        <v>0.06196062557780521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08801432782518502</v>
+      </c>
+      <c r="E30">
+        <v>0.01393765759427635</v>
+      </c>
+      <c r="F30">
+        <v>-0.07951011031280986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05131273653098924</v>
+        <v>0.05126866038716307</v>
       </c>
       <c r="C31">
-        <v>0.01712426395488914</v>
+        <v>-0.01584089592474356</v>
       </c>
       <c r="D31">
-        <v>0.02025638015948535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02435280175836384</v>
+      </c>
+      <c r="E31">
+        <v>0.0286573883041672</v>
+      </c>
+      <c r="F31">
+        <v>0.00146391271520433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0474690776848076</v>
+        <v>0.05098389971350291</v>
       </c>
       <c r="C32">
-        <v>0.002246791668259888</v>
+        <v>0.001726585954907041</v>
       </c>
       <c r="D32">
-        <v>0.02050745216803458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03554782284152367</v>
+      </c>
+      <c r="E32">
+        <v>0.03377984718610463</v>
+      </c>
+      <c r="F32">
+        <v>-0.002606627333028854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0930496060684234</v>
+        <v>0.08935152588376692</v>
       </c>
       <c r="C33">
-        <v>0.01395303130316671</v>
+        <v>-0.006517731528060075</v>
       </c>
       <c r="D33">
-        <v>0.07832325582404341</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1025618904577969</v>
+      </c>
+      <c r="E33">
+        <v>0.04569432081139969</v>
+      </c>
+      <c r="F33">
+        <v>-0.03958660463371778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07109841873518716</v>
+        <v>0.06778952815017743</v>
       </c>
       <c r="C34">
-        <v>0.01606034877399632</v>
+        <v>-0.01007259976774999</v>
       </c>
       <c r="D34">
-        <v>0.08613551185229545</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1098321174379571</v>
+      </c>
+      <c r="E34">
+        <v>0.03502760794887576</v>
+      </c>
+      <c r="F34">
+        <v>-0.03273055108319946</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02406382664869441</v>
+        <v>0.02598291056962599</v>
       </c>
       <c r="C35">
-        <v>0.002939538021782085</v>
+        <v>-0.002729911083287609</v>
       </c>
       <c r="D35">
-        <v>0.006672799882558696</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01203734615444686</v>
+      </c>
+      <c r="E35">
+        <v>0.01277999135629371</v>
+      </c>
+      <c r="F35">
+        <v>-0.00108012150136851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02644087167190184</v>
+        <v>0.02743637822687114</v>
       </c>
       <c r="C36">
-        <v>0.007841884249679389</v>
+        <v>-0.006797255304462286</v>
       </c>
       <c r="D36">
-        <v>0.03853952149545655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03952041281862301</v>
+      </c>
+      <c r="E36">
+        <v>0.01652842874161797</v>
+      </c>
+      <c r="F36">
+        <v>-0.01462635074892556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-9.968458801331275e-05</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0005597345195685764</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002414764721637042</v>
+      </c>
+      <c r="E37">
+        <v>-0.0005861315487619853</v>
+      </c>
+      <c r="F37">
+        <v>0.002198984007370001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1165538646156054</v>
+        <v>0.1037612631867993</v>
       </c>
       <c r="C39">
-        <v>0.02461230381479899</v>
+        <v>-0.01585311448265666</v>
       </c>
       <c r="D39">
-        <v>0.1409313531750084</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1534978636529371</v>
+      </c>
+      <c r="E39">
+        <v>0.05885558269374636</v>
+      </c>
+      <c r="F39">
+        <v>-0.03081897194674694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03953257853106643</v>
+        <v>0.04362579311730851</v>
       </c>
       <c r="C40">
-        <v>0.009447877804577664</v>
+        <v>-0.007453614284076383</v>
       </c>
       <c r="D40">
-        <v>0.01216932017904739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0307476359785516</v>
+      </c>
+      <c r="E40">
+        <v>0.001933322083845458</v>
+      </c>
+      <c r="F40">
+        <v>0.01907853008631569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02518494954481382</v>
+        <v>0.02751551418946597</v>
       </c>
       <c r="C41">
-        <v>0.007099463772108287</v>
+        <v>-0.006869773172954897</v>
       </c>
       <c r="D41">
-        <v>0.00978903017460697</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01060090696296162</v>
+      </c>
+      <c r="E41">
+        <v>0.01182778810820936</v>
+      </c>
+      <c r="F41">
+        <v>0.005963266028165755</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04213643782403017</v>
+        <v>0.04074566851949878</v>
       </c>
       <c r="C43">
-        <v>0.008144019240761519</v>
+        <v>-0.007244054762815257</v>
       </c>
       <c r="D43">
-        <v>0.01419436783434238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01866665814779944</v>
+      </c>
+      <c r="E43">
+        <v>0.02516732863015985</v>
+      </c>
+      <c r="F43">
+        <v>0.01307326855019764</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07440756786716517</v>
+        <v>0.07915087097103067</v>
       </c>
       <c r="C44">
-        <v>0.02633032976142345</v>
+        <v>-0.01903892731366367</v>
       </c>
       <c r="D44">
-        <v>0.07838628353888591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09738143464929963</v>
+      </c>
+      <c r="E44">
+        <v>0.06140367417376471</v>
+      </c>
+      <c r="F44">
+        <v>-0.1582620815038369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02134349615523949</v>
+        <v>0.02336627328553762</v>
       </c>
       <c r="C46">
-        <v>0.003894763859866145</v>
+        <v>-0.003386410550862133</v>
       </c>
       <c r="D46">
-        <v>0.005887455486503582</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01277368566932115</v>
+      </c>
+      <c r="E46">
+        <v>0.02604114177963304</v>
+      </c>
+      <c r="F46">
+        <v>0.006961533898189961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05309856363491577</v>
+        <v>0.05262830434712117</v>
       </c>
       <c r="C47">
-        <v>0.004661430829466026</v>
+        <v>-0.003976725922863089</v>
       </c>
       <c r="D47">
-        <v>0.007838759519104441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01145884182846765</v>
+      </c>
+      <c r="E47">
+        <v>0.02343376229566862</v>
+      </c>
+      <c r="F47">
+        <v>0.03198658496965608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04985473726181913</v>
+        <v>0.0503591436131746</v>
       </c>
       <c r="C48">
-        <v>0.00516432856639814</v>
+        <v>-0.002196496250468867</v>
       </c>
       <c r="D48">
-        <v>0.0410928723856275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05082830482388956</v>
+      </c>
+      <c r="E48">
+        <v>-0.004560479066991134</v>
+      </c>
+      <c r="F48">
+        <v>-0.008681069333407437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2021844502857185</v>
+        <v>0.2005934414255796</v>
       </c>
       <c r="C49">
-        <v>0.02186052231500048</v>
+        <v>-0.01927969714994557</v>
       </c>
       <c r="D49">
-        <v>-0.01626497631779883</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007321848399848523</v>
+      </c>
+      <c r="E49">
+        <v>0.03119743233914582</v>
+      </c>
+      <c r="F49">
+        <v>-0.0411770754402292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05056554535366712</v>
+        <v>0.05173020239326395</v>
       </c>
       <c r="C50">
-        <v>0.01316234127165945</v>
+        <v>-0.01154159205797841</v>
       </c>
       <c r="D50">
-        <v>0.01966238456536775</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02349878255366316</v>
+      </c>
+      <c r="E50">
+        <v>0.02981458809225218</v>
+      </c>
+      <c r="F50">
+        <v>-0.00965732961637864</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1565690579837013</v>
+        <v>0.1502154370057282</v>
       </c>
       <c r="C52">
-        <v>0.02016205128517395</v>
+        <v>-0.01833930002432613</v>
       </c>
       <c r="D52">
-        <v>0.04808953528796781</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04088105815730959</v>
+      </c>
+      <c r="E52">
+        <v>0.02112777906573472</v>
+      </c>
+      <c r="F52">
+        <v>-0.04396665120597568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1731549762894416</v>
+        <v>0.1707580517467045</v>
       </c>
       <c r="C53">
-        <v>0.01996477750790792</v>
+        <v>-0.02042702036223248</v>
       </c>
       <c r="D53">
-        <v>0.01176988751214678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003199869175978634</v>
+      </c>
+      <c r="E53">
+        <v>0.0277854870582774</v>
+      </c>
+      <c r="F53">
+        <v>-0.07330530436424078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01780160011424515</v>
+        <v>0.02064450670210713</v>
       </c>
       <c r="C54">
-        <v>0.01262742893108632</v>
+        <v>-0.01109939399698089</v>
       </c>
       <c r="D54">
-        <v>0.02730607079537325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03429416242460831</v>
+      </c>
+      <c r="E54">
+        <v>0.0219473633413749</v>
+      </c>
+      <c r="F54">
+        <v>0.00176396734800802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1158523498004984</v>
+        <v>0.1154401859416316</v>
       </c>
       <c r="C55">
-        <v>0.01783422755881722</v>
+        <v>-0.01803789182998083</v>
       </c>
       <c r="D55">
-        <v>0.01054549429438982</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006840772070716209</v>
+      </c>
+      <c r="E55">
+        <v>0.02359044309834183</v>
+      </c>
+      <c r="F55">
+        <v>-0.04659328835791145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1792237723210481</v>
+        <v>0.1769727891518156</v>
       </c>
       <c r="C56">
-        <v>0.01753522301340411</v>
+        <v>-0.01846715719956972</v>
       </c>
       <c r="D56">
-        <v>0.008981900469202596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004043252944107147</v>
+      </c>
+      <c r="E56">
+        <v>0.03161003333955768</v>
+      </c>
+      <c r="F56">
+        <v>-0.05336781512347422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04915853081176778</v>
+        <v>0.04546726388258671</v>
       </c>
       <c r="C58">
-        <v>0.005822231363120121</v>
+        <v>0.0002102116708990137</v>
       </c>
       <c r="D58">
-        <v>0.0554829971159242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07212906103155842</v>
+      </c>
+      <c r="E58">
+        <v>0.03337066620746679</v>
+      </c>
+      <c r="F58">
+        <v>0.03627597937527051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1609828200693452</v>
+        <v>0.1665944007216066</v>
       </c>
       <c r="C59">
-        <v>0.01356011079008765</v>
+        <v>-0.02275952361398622</v>
       </c>
       <c r="D59">
-        <v>-0.224125445645093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.217936382315416</v>
+      </c>
+      <c r="E59">
+        <v>-0.04728291719761862</v>
+      </c>
+      <c r="F59">
+        <v>0.03470170265840344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2377161222625785</v>
+        <v>0.2321264667002927</v>
       </c>
       <c r="C60">
-        <v>0.001641655702767449</v>
+        <v>0.001467814260636464</v>
       </c>
       <c r="D60">
-        <v>0.04521847730572974</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03893161310669555</v>
+      </c>
+      <c r="E60">
+        <v>0.006898472536503822</v>
+      </c>
+      <c r="F60">
+        <v>0.0005332370551300562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08780547061589856</v>
+        <v>0.07964654243408587</v>
       </c>
       <c r="C61">
-        <v>0.01817474885683157</v>
+        <v>-0.01130305161579135</v>
       </c>
       <c r="D61">
-        <v>0.09941071455103204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1175156630778063</v>
+      </c>
+      <c r="E61">
+        <v>0.03880213723136661</v>
+      </c>
+      <c r="F61">
+        <v>-0.01314773518255594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1702125521773167</v>
+        <v>0.168508307090938</v>
       </c>
       <c r="C62">
-        <v>0.02136933498166222</v>
+        <v>-0.02103963729258823</v>
       </c>
       <c r="D62">
-        <v>0.005572048441258452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004142742884601365</v>
+      </c>
+      <c r="E62">
+        <v>0.03198098833114384</v>
+      </c>
+      <c r="F62">
+        <v>-0.0375677753808316</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04371195901161294</v>
+        <v>0.04606713978769309</v>
       </c>
       <c r="C63">
-        <v>0.005929669559074501</v>
+        <v>-0.001779103118174286</v>
       </c>
       <c r="D63">
-        <v>0.04379053137258643</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05961964867025175</v>
+      </c>
+      <c r="E63">
+        <v>0.02406794640304371</v>
+      </c>
+      <c r="F63">
+        <v>-0.003391115436273184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1128449322788355</v>
+        <v>0.110758750616386</v>
       </c>
       <c r="C64">
-        <v>0.01519068906735876</v>
+        <v>-0.01173136522834209</v>
       </c>
       <c r="D64">
-        <v>0.03217034548644858</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04328663273009788</v>
+      </c>
+      <c r="E64">
+        <v>0.02271924049597472</v>
+      </c>
+      <c r="F64">
+        <v>-0.02610417543721135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1396059428978724</v>
+        <v>0.151031484157725</v>
       </c>
       <c r="C65">
-        <v>0.03374873857379102</v>
+        <v>-0.03442308942428716</v>
       </c>
       <c r="D65">
-        <v>-0.04993198172176423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0459192975036865</v>
+      </c>
+      <c r="E65">
+        <v>0.004457860202196189</v>
+      </c>
+      <c r="F65">
+        <v>-0.03495691352789632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1396800514711889</v>
+        <v>0.123800612740228</v>
       </c>
       <c r="C66">
-        <v>0.02282434492317566</v>
+        <v>-0.01397167057526626</v>
       </c>
       <c r="D66">
-        <v>0.119350964097713</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1410043158151567</v>
+      </c>
+      <c r="E66">
+        <v>0.06414488073331834</v>
+      </c>
+      <c r="F66">
+        <v>-0.03432446298026651</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06329145146980855</v>
+        <v>0.05650397101496023</v>
       </c>
       <c r="C67">
-        <v>0.005449781215610275</v>
+        <v>-0.002801510994061336</v>
       </c>
       <c r="D67">
-        <v>0.0528182237111294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05528006624442929</v>
+      </c>
+      <c r="E67">
+        <v>0.01615263376065418</v>
+      </c>
+      <c r="F67">
+        <v>0.02911906213545459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1047462915737935</v>
+        <v>0.1163167689348133</v>
       </c>
       <c r="C68">
-        <v>0.02188724775947405</v>
+        <v>-0.03304135732682221</v>
       </c>
       <c r="D68">
-        <v>-0.2715410329836005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2619032917036355</v>
+      </c>
+      <c r="E68">
+        <v>-0.08786580599802506</v>
+      </c>
+      <c r="F68">
+        <v>0.002566804366885386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03964963043793947</v>
+        <v>0.03853950727578761</v>
       </c>
       <c r="C69">
-        <v>0.001827241749470574</v>
+        <v>-0.001239271355287771</v>
       </c>
       <c r="D69">
-        <v>0.007378883673072848</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007677375193463245</v>
+      </c>
+      <c r="E69">
+        <v>0.02304822762266374</v>
+      </c>
+      <c r="F69">
+        <v>-0.0008566658621342382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06569016192286636</v>
+        <v>0.0660434921191162</v>
       </c>
       <c r="C70">
-        <v>-0.02471357792470402</v>
+        <v>0.02748168967801328</v>
       </c>
       <c r="D70">
-        <v>-0.00720615447957338</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0242487877321149</v>
+      </c>
+      <c r="E70">
+        <v>-0.03190103142461345</v>
+      </c>
+      <c r="F70">
+        <v>0.1753589958267212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1228960694750551</v>
+        <v>0.1354104262276519</v>
       </c>
       <c r="C71">
-        <v>0.02551898014577036</v>
+        <v>-0.03742661319918072</v>
       </c>
       <c r="D71">
-        <v>-0.2867949239663699</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2722555648735726</v>
+      </c>
+      <c r="E71">
+        <v>-0.09819970260317067</v>
+      </c>
+      <c r="F71">
+        <v>-0.003661660920856296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1390081143929441</v>
+        <v>0.143491413637735</v>
       </c>
       <c r="C72">
-        <v>0.0276252468414713</v>
+        <v>-0.02752957950019575</v>
       </c>
       <c r="D72">
-        <v>0.001707115625677405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004774871914513527</v>
+      </c>
+      <c r="E72">
+        <v>0.03644342285251603</v>
+      </c>
+      <c r="F72">
+        <v>-0.03107665815282653</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2068346219205864</v>
+        <v>0.2043692234634962</v>
       </c>
       <c r="C73">
-        <v>0.01732668459817745</v>
+        <v>-0.01348568039697058</v>
       </c>
       <c r="D73">
-        <v>0.01375840708248137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01692471354806478</v>
+      </c>
+      <c r="E73">
+        <v>0.06414061647285364</v>
+      </c>
+      <c r="F73">
+        <v>-0.04009880945764299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09341208057475639</v>
+        <v>0.09526448194643333</v>
       </c>
       <c r="C74">
-        <v>0.01397859225164464</v>
+        <v>-0.01385014025023114</v>
       </c>
       <c r="D74">
-        <v>0.01993558193672427</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01555718300867915</v>
+      </c>
+      <c r="E74">
+        <v>0.043153565128762</v>
+      </c>
+      <c r="F74">
+        <v>-0.05544373757576555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338048610534577</v>
+        <v>0.1270831881301496</v>
       </c>
       <c r="C75">
-        <v>0.03021759038271193</v>
+        <v>-0.02877587209254417</v>
       </c>
       <c r="D75">
-        <v>0.02896853094578651</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0282384908894374</v>
+      </c>
+      <c r="E75">
+        <v>0.05615569723994865</v>
+      </c>
+      <c r="F75">
+        <v>-0.02328002062233564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08413642262491458</v>
+        <v>0.09047436573132325</v>
       </c>
       <c r="C77">
-        <v>0.01552118050181577</v>
+        <v>-0.008294543164725348</v>
       </c>
       <c r="D77">
-        <v>0.09540669143597233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114328952636114</v>
+      </c>
+      <c r="E77">
+        <v>0.04443805924235634</v>
+      </c>
+      <c r="F77">
+        <v>-0.03338655040598199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1037862741205988</v>
+        <v>0.1013605044559105</v>
       </c>
       <c r="C78">
-        <v>0.04586076112872697</v>
+        <v>-0.03934614686966368</v>
       </c>
       <c r="D78">
-        <v>0.1036167226167749</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1149166801086148</v>
+      </c>
+      <c r="E78">
+        <v>0.07719671292868749</v>
+      </c>
+      <c r="F78">
+        <v>-0.05230916489949657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1640750975320616</v>
+        <v>0.1634520107685833</v>
       </c>
       <c r="C79">
-        <v>0.0245519959704937</v>
+        <v>-0.02355645861976837</v>
       </c>
       <c r="D79">
-        <v>0.01286502724183776</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0117959713680369</v>
+      </c>
+      <c r="E79">
+        <v>0.0441031882042064</v>
+      </c>
+      <c r="F79">
+        <v>-0.01206873074927874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08604214406034046</v>
+        <v>0.0825769737632725</v>
       </c>
       <c r="C80">
-        <v>0.002080010755753892</v>
+        <v>0.0004045751941615269</v>
       </c>
       <c r="D80">
-        <v>0.04323489315330815</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05445552291592747</v>
+      </c>
+      <c r="E80">
+        <v>0.03497840872373591</v>
+      </c>
+      <c r="F80">
+        <v>0.0191768063589584</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1202303298681025</v>
+        <v>0.1179996002637998</v>
       </c>
       <c r="C81">
-        <v>0.03235993544423527</v>
+        <v>-0.03239120341980597</v>
       </c>
       <c r="D81">
-        <v>0.02338536206122773</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01359718365675689</v>
+      </c>
+      <c r="E81">
+        <v>0.05477477225086856</v>
+      </c>
+      <c r="F81">
+        <v>-0.01982498809871321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660496784451627</v>
+        <v>0.1659687893558518</v>
       </c>
       <c r="C82">
-        <v>0.02529473906750814</v>
+        <v>-0.02586387905337596</v>
       </c>
       <c r="D82">
-        <v>0.0126878071558857</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001241372093341485</v>
+      </c>
+      <c r="E82">
+        <v>0.02447923407478739</v>
+      </c>
+      <c r="F82">
+        <v>-0.08057625864586603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06576107544959472</v>
+        <v>0.05814197994007726</v>
       </c>
       <c r="C83">
-        <v>0.006117285127096305</v>
+        <v>-0.002994235038151942</v>
       </c>
       <c r="D83">
-        <v>0.03503022857931188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04892062753000787</v>
+      </c>
+      <c r="E83">
+        <v>0.002358548149850272</v>
+      </c>
+      <c r="F83">
+        <v>0.02809514431034541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06404663986779455</v>
+        <v>0.05839791106945193</v>
       </c>
       <c r="C84">
-        <v>0.01477744134968938</v>
+        <v>-0.01094328558509041</v>
       </c>
       <c r="D84">
-        <v>0.06629727831403083</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07232867492014759</v>
+      </c>
+      <c r="E84">
+        <v>0.01453731531417416</v>
+      </c>
+      <c r="F84">
+        <v>-0.01387315290518013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.137456500833155</v>
+        <v>0.1349820696458092</v>
       </c>
       <c r="C85">
-        <v>0.02882792530519902</v>
+        <v>-0.02872548147798102</v>
       </c>
       <c r="D85">
-        <v>0.01629902929062721</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007930740036171963</v>
+      </c>
+      <c r="E85">
+        <v>0.03506135086076886</v>
+      </c>
+      <c r="F85">
+        <v>-0.04695440253795193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.101025952502543</v>
+        <v>0.09293893031712824</v>
       </c>
       <c r="C86">
-        <v>-0.003376981651997477</v>
+        <v>0.006302395951018484</v>
       </c>
       <c r="D86">
-        <v>0.001997483335111456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05061084071082541</v>
+      </c>
+      <c r="E86">
+        <v>0.2416762808330752</v>
+      </c>
+      <c r="F86">
+        <v>0.903903969467632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09986573247979812</v>
+        <v>0.09359917747031717</v>
       </c>
       <c r="C87">
-        <v>0.02846421980911378</v>
+        <v>-0.01928859586250149</v>
       </c>
       <c r="D87">
-        <v>0.06759280389552345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09465968279530362</v>
+      </c>
+      <c r="E87">
+        <v>-0.05259578647070462</v>
+      </c>
+      <c r="F87">
+        <v>-0.04757931547932664</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06049256451607972</v>
+        <v>0.06010969157038962</v>
       </c>
       <c r="C88">
-        <v>0.005198339177068412</v>
+        <v>-0.002320864724559343</v>
       </c>
       <c r="D88">
-        <v>0.05397187642048554</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04953793625099473</v>
+      </c>
+      <c r="E88">
+        <v>0.02393971205560886</v>
+      </c>
+      <c r="F88">
+        <v>-0.01546576020296049</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1165623556328467</v>
+        <v>0.1261132115260727</v>
       </c>
       <c r="C89">
-        <v>0.002821470256905521</v>
+        <v>-0.01274577685532456</v>
       </c>
       <c r="D89">
-        <v>-0.2611756748325293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436470369834089</v>
+      </c>
+      <c r="E89">
+        <v>-0.08983427319588674</v>
+      </c>
+      <c r="F89">
+        <v>0.01212132328101636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1339320859734404</v>
+        <v>0.1504380091167174</v>
       </c>
       <c r="C90">
-        <v>0.02222523734711631</v>
+        <v>-0.03418622936599482</v>
       </c>
       <c r="D90">
-        <v>-0.2744368570070109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2700954237487954</v>
+      </c>
+      <c r="E90">
+        <v>-0.1137067137812961</v>
+      </c>
+      <c r="F90">
+        <v>0.01263030298695125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1199862061898217</v>
+        <v>0.1211425633614014</v>
       </c>
       <c r="C91">
-        <v>0.01956014751572324</v>
+        <v>-0.02037943481472066</v>
       </c>
       <c r="D91">
-        <v>-0.007360713951172956</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01719595358868395</v>
+      </c>
+      <c r="E91">
+        <v>0.05411252074383297</v>
+      </c>
+      <c r="F91">
+        <v>0.0005202795582938759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1362437248419578</v>
+        <v>0.1459807853778046</v>
       </c>
       <c r="C92">
-        <v>0.01219354346513368</v>
+        <v>-0.02464008003923111</v>
       </c>
       <c r="D92">
-        <v>-0.3081367403063724</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2898491502383497</v>
+      </c>
+      <c r="E92">
+        <v>-0.1021560682625905</v>
+      </c>
+      <c r="F92">
+        <v>0.02105352071118004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1373062820031185</v>
+        <v>0.1510746156487525</v>
       </c>
       <c r="C93">
-        <v>0.01783080275825766</v>
+        <v>-0.0290717150148312</v>
       </c>
       <c r="D93">
-        <v>-0.2701790558958494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2652768894212283</v>
+      </c>
+      <c r="E93">
+        <v>-0.07594697095761957</v>
+      </c>
+      <c r="F93">
+        <v>0.001609586621541782</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1343952943018085</v>
+        <v>0.1278679566901074</v>
       </c>
       <c r="C94">
-        <v>0.02721566754760712</v>
+        <v>-0.02514827400412015</v>
       </c>
       <c r="D94">
-        <v>0.04302867449507591</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03994137039805835</v>
+      </c>
+      <c r="E94">
+        <v>0.05631575074926971</v>
+      </c>
+      <c r="F94">
+        <v>-0.03610408358803509</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1255120392400251</v>
+        <v>0.1263288362245873</v>
       </c>
       <c r="C95">
-        <v>0.01004187827520218</v>
+        <v>-0.003166919178557438</v>
       </c>
       <c r="D95">
-        <v>0.07865695374414294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09777518582444183</v>
+      </c>
+      <c r="E95">
+        <v>0.05291919411955105</v>
+      </c>
+      <c r="F95">
+        <v>0.004728561974504844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1196524290132679</v>
+        <v>0.1117616131850799</v>
       </c>
       <c r="C96">
-        <v>-0.9870482197293888</v>
+        <v>0.9868741379690573</v>
       </c>
       <c r="D96">
-        <v>-0.0116690030388308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05100665535139209</v>
+      </c>
+      <c r="E96">
+        <v>0.05198775228041461</v>
+      </c>
+      <c r="F96">
+        <v>-0.04277568409055851</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1924533711307561</v>
+        <v>0.1939904432277047</v>
       </c>
       <c r="C97">
-        <v>-0.005757643058167894</v>
+        <v>0.0058753824585067</v>
       </c>
       <c r="D97">
-        <v>-0.01160917223393386</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02111323149669954</v>
+      </c>
+      <c r="E97">
+        <v>0.02180022313088404</v>
+      </c>
+      <c r="F97">
+        <v>0.09192969552451496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.198995768508075</v>
+        <v>0.2065437482714041</v>
       </c>
       <c r="C98">
-        <v>0.01166595209827419</v>
+        <v>-0.007394329648447552</v>
       </c>
       <c r="D98">
-        <v>0.009699069988328217</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01344831109904076</v>
+      </c>
+      <c r="E98">
+        <v>-0.07468950386167132</v>
+      </c>
+      <c r="F98">
+        <v>0.09090508043444821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05638797407054844</v>
+        <v>0.05527844953092373</v>
       </c>
       <c r="C99">
-        <v>-0.001980195228096318</v>
+        <v>0.00425845536771772</v>
       </c>
       <c r="D99">
-        <v>0.02336118504775215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03863315005481541</v>
+      </c>
+      <c r="E99">
+        <v>0.02177725539154098</v>
+      </c>
+      <c r="F99">
+        <v>-0.003540029275519698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1422130550259805</v>
+        <v>0.1289738600102041</v>
       </c>
       <c r="C100">
-        <v>-0.03765345705307245</v>
+        <v>0.05226938860963218</v>
       </c>
       <c r="D100">
-        <v>0.4167415997614052</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3506739455905483</v>
+      </c>
+      <c r="E100">
+        <v>-0.8828518679683313</v>
+      </c>
+      <c r="F100">
+        <v>0.1679092416214891</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02585946997501494</v>
+        <v>0.02841074512510457</v>
       </c>
       <c r="C101">
-        <v>0.009636578933423482</v>
+        <v>-0.00879043395689965</v>
       </c>
       <c r="D101">
-        <v>0.02291223992320509</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03066133689649314</v>
+      </c>
+      <c r="E101">
+        <v>0.01297570015432027</v>
+      </c>
+      <c r="F101">
+        <v>0.01403852585646502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
